--- a/biology/Zoologie/Ariadna_levii/Ariadna_levii.xlsx
+++ b/biology/Zoologie/Ariadna_levii/Ariadna_levii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna levii est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna levii est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili[1]. Elle se rencontre dans les régions de Valparaíso, de Santiago, du Maule, d'Araucanie et des Fleuves[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans les régions de Valparaíso, de Santiago, du Maule, d'Araucanie et des Fleuves.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,87 mm et la femelle paratype mesure 10,59 mm[2].
-Le mâle décrit par Giroti et Brescovit en 2018 mesure 7,24 mm et la femelle 9,68 mm, les mâles mesurent de 5,08 à 7,24 mm et les femelles de 7,44 à 9,68 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,87 mm et la femelle paratype mesure 10,59 mm.
+Le mâle décrit par Giroti et Brescovit en 2018 mesure 7,24 mm et la femelle 9,68 mm, les mâles mesurent de 5,08 à 7,24 mm et les femelles de 7,44 à 9,68 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Herbert Walter Levi[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Herbert Walter Levi.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grismado, 2008 : A taxonomic revision of the spider genus Ariadna Audouin, 1826 in Argentina and Chile, with the description of five new species (Arachnida, Araneae, Segestriidae). Zoosystema, vol. 30, p. 333-360.</t>
         </is>
